--- a/Framework/Temp/Batch1/CommonDirectory.xlsx
+++ b/Framework/Temp/Batch1/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="58" activeTab="58"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="556">
   <si>
     <t>TestCase</t>
   </si>
@@ -3499,8 +3499,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,7 +4208,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4895,8 +4895,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AH3"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5313,6 +5313,9 @@
       <c r="R5" s="5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5" s="92" t="s">
+        <v>122</v>
+      </c>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5" s="6"/>
@@ -8079,7 +8082,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AB6" sqref="AB6:AD7"/>
     </sheetView>
   </sheetViews>
@@ -10025,8 +10028,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10318,9 +10321,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="P3" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="AA3" s="6"/>
@@ -11259,8 +11260,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11562,9 +11563,7 @@
         <v>494</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="P3" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -11846,8 +11845,8 @@
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12059,8 +12058,9 @@
       <c r="K2" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>77</v>
+      <c r="L2" s="9"/>
+      <c r="M2" t="s">
+        <v>122</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>47</v>
@@ -12148,9 +12148,7 @@
       <c r="AT2" s="6"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L3" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="L3" s="9"/>
       <c r="S3" s="6"/>
       <c r="AH3" s="6" t="s">
         <v>124</v>
@@ -12175,9 +12173,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="L4" s="9"/>
       <c r="AG4" s="6" t="s">
         <v>124</v>
       </c>
@@ -12192,9 +12188,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L5" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="L5" s="9"/>
       <c r="AG5" s="6"/>
       <c r="AI5" t="s">
         <v>76</v>
@@ -12204,17 +12198,13 @@
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="L6" s="9"/>
       <c r="AM6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="L7" s="9"/>
       <c r="AM7" t="s">
         <v>107</v>
       </c>
@@ -12945,8 +12935,8 @@
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13378,7 +13368,7 @@
   <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13701,9 +13691,7 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="S3" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="S3" s="9"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AD3" s="6"/>
@@ -15622,7 +15610,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16283,8 +16271,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16531,10 +16519,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">

--- a/Framework/Temp/Batch1/CommonDirectory.xlsx
+++ b/Framework/Temp/Batch1/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="58" activeTab="58"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="58" activeTab="62"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="556">
   <si>
     <t>TestCase</t>
   </si>
@@ -1497,12 +1497,6 @@
     <t>Ethernet VPN Access 1Gb</t>
   </si>
   <si>
-    <t>Virtual Connection1</t>
-  </si>
-  <si>
-    <t>Virtual Connection2</t>
-  </si>
-  <si>
     <t>LEASEDLINE</t>
   </si>
   <si>
@@ -1518,21 +1512,9 @@
     <t>IPLC Node Features</t>
   </si>
   <si>
-    <t>IPLC Features</t>
-  </si>
-  <si>
-    <t>IPLC Service</t>
-  </si>
-  <si>
-    <t>IPLC Charges</t>
-  </si>
-  <si>
     <t>IPLC</t>
   </si>
   <si>
-    <t>VFQA_IPLC</t>
-  </si>
-  <si>
     <t>IPLC VPN Network</t>
   </si>
   <si>
@@ -1762,6 +1744,24 @@
   </si>
   <si>
     <t>Existing</t>
+  </si>
+  <si>
+    <t>VPN Connection 1</t>
+  </si>
+  <si>
+    <t>VPN Connection 2</t>
+  </si>
+  <si>
+    <t>IPLCFeatures</t>
+  </si>
+  <si>
+    <t>IPLCServices</t>
+  </si>
+  <si>
+    <t>IPLC_Charge</t>
+  </si>
+  <si>
+    <t>IPLCSLA</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2369,10 +2369,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4122,10 +4128,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>123</v>
@@ -4154,7 +4160,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F2" s="6"/>
       <c r="H2" s="3" t="s">
@@ -4181,7 +4187,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -4483,7 +4489,7 @@
         <v>23</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -5365,7 +5371,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5578,7 +5584,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B2" s="86"/>
       <c r="C2" s="81" t="s">
@@ -7227,7 +7233,7 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>126</v>
@@ -7345,15 +7351,15 @@
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="80" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="95"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
@@ -7367,10 +7373,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="95"/>
+      <c r="R2" s="96"/>
       <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
@@ -7442,7 +7448,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
       <c r="F3" s="80" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="N3" s="55">
         <v>1126194</v>
@@ -7832,7 +7838,7 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>126</v>
@@ -7948,15 +7954,15 @@
         <v>33</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="95"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
@@ -7970,10 +7976,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="95"/>
+      <c r="R2" s="96"/>
       <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
@@ -8043,7 +8049,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="N3" s="55">
         <v>1126194</v>
@@ -8701,30 +8707,30 @@
         <v>139</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>495</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>32</v>
@@ -8735,15 +8741,15 @@
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="K2" s="57" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>32</v>
@@ -8787,10 +8793,10 @@
         <v>91</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9157,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9167,13 +9173,13 @@
       <c r="B2" s="24"/>
       <c r="C2" s="51"/>
       <c r="D2" s="25" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9183,13 +9189,13 @@
       <c r="B3" s="24"/>
       <c r="C3" s="51"/>
       <c r="D3" s="25" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9199,13 +9205,13 @@
       <c r="B4" s="24"/>
       <c r="C4" s="51"/>
       <c r="D4" s="25" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9215,13 +9221,13 @@
       <c r="B5" s="24"/>
       <c r="C5" s="51"/>
       <c r="D5" s="25" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -9253,7 +9259,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D1" s="46" t="s">
         <v>3</v>
@@ -10093,10 +10099,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>126</v>
@@ -10213,7 +10219,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="8"/>
@@ -10316,7 +10322,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="8"/>
@@ -10389,7 +10395,7 @@
         <v>344</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>340</v>
@@ -10406,10 +10412,10 @@
         <v>337</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -10418,10 +10424,10 @@
         <v>338</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -10475,10 +10481,10 @@
         <v>337</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>343</v>
@@ -10489,10 +10495,10 @@
         <v>338</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>343</v>
@@ -10559,10 +10565,10 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10571,10 +10577,10 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10668,13 +10674,13 @@
         <v>342</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>341</v>
@@ -10682,10 +10688,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>343</v>
@@ -10726,10 +10732,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>126</v>
@@ -10837,18 +10843,18 @@
         <v>29</v>
       </c>
       <c r="AR1" s="18" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AS1" s="18" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AT1" s="18" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>53</v>
@@ -10948,16 +10954,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" s="93" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AR2" s="93" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AS2" s="93" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AT2" s="93" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -11038,12 +11044,12 @@
         <v>142</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D2" s="93" t="s">
         <v>32</v>
@@ -11052,15 +11058,15 @@
         <v>33</v>
       </c>
       <c r="F2" s="93" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D3" s="93" t="s">
         <v>32</v>
@@ -11069,10 +11075,10 @@
         <v>33</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G3" s="93" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -11113,24 +11119,24 @@
         <v>127</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="93">
         <v>1000</v>
       </c>
@@ -11325,10 +11331,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>126</v>
@@ -11451,7 +11457,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H2" s="6"/>
       <c r="J2" t="s">
@@ -11560,7 +11566,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H3" s="6"/>
       <c r="P3" s="9"/>
@@ -11683,7 +11689,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -11725,12 +11731,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -11774,7 +11780,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="76" t="s">
@@ -11952,7 +11958,7 @@
         <v>67</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>5</v>
@@ -12069,7 +12075,7 @@
         <v>48</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>117</v>
@@ -12558,7 +12564,7 @@
         <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -12678,7 +12684,7 @@
         <v>137</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
@@ -12775,7 +12781,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="O3" s="9"/>
       <c r="V3" s="3"/>
@@ -12887,11 +12893,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -12900,11 +12906,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -12913,11 +12919,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12935,7 +12941,7 @@
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="AL1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
@@ -13441,10 +13447,10 @@
         <v>437</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>127</v>
@@ -13574,7 +13580,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -13687,7 +13693,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -13968,7 +13974,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G2" t="s">
         <v>137</v>
@@ -14001,7 +14007,7 @@
         <v>48</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>35</v>
@@ -14074,19 +14080,19 @@
         <v>121</v>
       </c>
       <c r="AU2" s="42" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AV2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AW2" s="43" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AX2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AY2" s="43" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -14428,7 +14434,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G2" s="90" t="s">
         <v>137</v>
@@ -14461,7 +14467,7 @@
         <v>48</v>
       </c>
       <c r="V2" s="92" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W2" s="92" t="s">
         <v>35</v>
@@ -14534,19 +14540,19 @@
         <v>121</v>
       </c>
       <c r="AU2" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="AV2" s="90" t="s">
         <v>470</v>
       </c>
-      <c r="AV2" s="90" t="s">
-        <v>472</v>
-      </c>
       <c r="AW2" s="43" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AX2" s="90" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AY2" s="43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -14987,419 +14993,664 @@
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
-  <dimension ref="A1:BB7"/>
+  <dimension ref="A1:BC7"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="46" max="46" width="23.85546875" customWidth="1"/>
-    <col min="47" max="47" width="31.5703125" customWidth="1"/>
-    <col min="48" max="48" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="22" customWidth="1"/>
+    <col min="4" max="45" width="9.140625" style="22"/>
+    <col min="46" max="46" width="23.85546875" style="22" customWidth="1"/>
+    <col min="47" max="47" width="31.5703125" style="22" customWidth="1"/>
+    <col min="48" max="48" width="11.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="39.5703125" style="22" customWidth="1"/>
+    <col min="55" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" s="40" t="s">
+      <c r="AT1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="40" t="s">
+      <c r="AU1" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="AV1" s="40" t="s">
+      <c r="AV1" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="AW1" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="AX1" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="AY1" s="40" t="s">
+      <c r="AW1" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="AX1" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="AY1" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="AZ1" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="BA1" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="BB1" s="39" t="s">
+        <v>554</v>
+      </c>
+      <c r="BC1" s="98" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="96"/>
+      <c r="I2" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="55">
+        <v>98766</v>
+      </c>
+      <c r="M2" s="55">
+        <v>98663499921</v>
+      </c>
+      <c r="N2" s="55">
+        <v>1126192</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2" s="95">
+        <v>12345</v>
+      </c>
+      <c r="S2" s="95">
+        <v>51232</v>
+      </c>
+      <c r="T2"/>
+      <c r="U2" s="95" t="s">
+        <v>460</v>
+      </c>
+      <c r="V2" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="95">
+        <v>12181980</v>
+      </c>
+      <c r="Z2" s="95">
+        <v>12142020</v>
+      </c>
+      <c r="AA2" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="95">
+        <v>97498098089</v>
+      </c>
+      <c r="AD2" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="95">
+        <v>12345</v>
+      </c>
+      <c r="AH2" s="95">
+        <v>51232</v>
+      </c>
+      <c r="AI2"/>
+      <c r="AJ2" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="95">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="AZ1" s="40" t="s">
+      <c r="AU2" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="BA1" s="40" t="s">
+      <c r="AV2" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="AW2" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="BB1" s="40" t="s">
+      <c r="AX2" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="AY2" s="25" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="AZ2" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="BA2" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" t="s">
+      <c r="BB2" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="BC2"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK3" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM3" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN3" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="AO2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT2" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="AU2" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="AV2" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="AW2" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="AX2" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>482</v>
-      </c>
-      <c r="AZ2" s="43" t="s">
-        <v>483</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="BB2" s="43" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="AI3" s="6" t="s">
+      <c r="AO3" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="AI4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AJ4"/>
+      <c r="AK4" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4" s="95" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="AI5" s="6"/>
-      <c r="AK5" t="s">
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AL5" s="97"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5" s="95" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="AO6" t="s">
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6" s="95" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="AO7" t="s">
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7" s="97" t="s">
         <v>107</v>
       </c>
+      <c r="AP7" s="97"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO7:AQ7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15727,7 +15978,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>33</v>
@@ -15841,7 +16092,7 @@
         <v>126</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I1" s="61" t="s">
         <v>136</v>
@@ -15962,7 +16213,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="68" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>137</v>
@@ -16069,7 +16320,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="68" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I3" s="62"/>
       <c r="J3" s="62"/>
@@ -16149,7 +16400,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -16194,32 +16445,32 @@
         <v>342</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -16252,7 +16503,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -16374,7 +16625,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -16409,7 +16660,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -16446,7 +16697,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B2" s="87"/>
       <c r="C2" s="89" t="s">
@@ -16487,7 +16738,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="92" t="s">
@@ -16499,7 +16750,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="92" t="s">
@@ -16543,7 +16794,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="92" t="s">
@@ -16555,7 +16806,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="92" t="s">
@@ -16596,7 +16847,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="92" t="s">
@@ -16608,7 +16859,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="92" t="s">
@@ -16728,7 +16979,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
